--- a/biology/Zoologie/Cobanus/Cobanus.xlsx
+++ b/biology/Zoologie/Cobanus/Cobanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cobanus est un genre d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cobanus est un genre d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Panama, en Colombie et au Costa Rica[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Panama, en Colombie et au Costa Rica.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 19/03/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 19/03/2022) :
 Cobanus bifurcatus Chickering, 1946
 Cobanus cambridgei Chickering, 1946
 Cobanus chocquibtown Cala-Riquelme, Bustamante &amp; Salgado, 2022
@@ -580,9 +596,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helorus a été décrit par Peckham et Peckham en 1896. Le nom Helorus Peckham &amp; Peckham, 1896 étant préoccupé par Helorus Latreille, 1802, il est renommé Cobanus par F. O. Pickard-Cambridge en 1900 puis de manière superflue Helpidius par Simon en 1901. Il est placé en synonymie avec Sidusa par Zhang et Maddison en 2015[3]. Il est relevé de synonymie par Prószyński en 2017[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helorus a été décrit par Peckham et Peckham en 1896. Le nom Helorus Peckham &amp; Peckham, 1896 étant préoccupé par Helorus Latreille, 1802, il est renommé Cobanus par F. O. Pickard-Cambridge en 1900 puis de manière superflue Helpidius par Simon en 1901. Il est placé en synonymie avec Sidusa par Zhang et Maddison en 2015. Il est relevé de synonymie par Prószyński en 2017.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>F. O. Pickard-Cambridge, 1900 : « Arachnida - Araneida and Opiliones. » Biologia Centrali-Americana, Zoology, London, vol. 2, p. 89-192 (texte intégral).
 Peckham &amp; Peckham, 1896 : « Spiders of the family Attidae from Central America and Mexico. » Occasional Papers of the Natural History Society of Wisconsin, vol. 3, no 1, p. 1-101 (texte intégral).</t>
